--- a/ConfigInput/ET/StartSceneConfig.xlsx
+++ b/ConfigInput/ET/StartSceneConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\ConfigInput\ET\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C49791-A440-4B46-913B-0EB85480A1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28035" windowHeight="11580"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>##comment</t>
   </si>
@@ -93,19 +99,17 @@
   </si>
   <si>
     <t>Robot01</t>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,158 +131,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,194 +156,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -492,251 +165,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -755,61 +186,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1096,19 +483,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1118,7 +505,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1164,7 +551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1187,7 +574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -1207,7 +594,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1227,7 +614,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:7">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1247,7 +634,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1265,7 +652,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -1283,7 +670,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -1301,23 +688,42 @@
       </c>
       <c r="G9" s="6"/>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10007</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1327,7 +733,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1373,7 +779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1396,7 +802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>200</v>
       </c>
@@ -1414,10 +820,10 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ConfigInput/ET/StartSceneConfig.xlsx
+++ b/ConfigInput/ET/StartSceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\ConfigInput\ET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C49791-A440-4B46-913B-0EB85480A1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA1DD23-B0EE-45B1-B7E3-1ED7511D4C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="2310" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>##comment</t>
   </si>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginCenter</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -705,8 +709,46 @@
         <v>26</v>
       </c>
       <c r="G10" s="3">
-        <v>10007</v>
-      </c>
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/ConfigInput/ET/StartSceneConfig.xlsx
+++ b/ConfigInput/ET/StartSceneConfig.xlsx
@@ -8,20 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\ConfigInput\ET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA1DD23-B0EE-45B1-B7E3-1ED7511D4C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612993B9-E27A-4B48-8582-C768A3B524A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2310" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="2925" windowWidth="25725" windowHeight="11265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="Robot区" sheetId="2" r:id="rId2"/>
+    <sheet name="一区" sheetId="1" r:id="rId1"/>
+    <sheet name="二区" sheetId="2" r:id="rId2"/>
+    <sheet name="公共逻辑区" sheetId="3" r:id="rId3"/>
+    <sheet name="机器人区" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="37">
   <si>
     <t>##comment</t>
   </si>
@@ -71,54 +83,143 @@
     <t>string</t>
   </si>
   <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Gate1</t>
+  </si>
+  <si>
+    <t>Gate2</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Map1</t>
+  </si>
+  <si>
+    <t>Map2</t>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginCenter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>起服顺序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Realm</t>
-  </si>
-  <si>
-    <t>Gate</t>
-  </si>
-  <si>
-    <t>Gate1</t>
-  </si>
-  <si>
-    <t>Gate2</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Map1</t>
-  </si>
-  <si>
-    <t>Map2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Realm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Realm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
   <si>
     <t>Robot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Robot01</t>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginCenter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot02</t>
+  </si>
+  <si>
+    <t>Robot03</t>
+  </si>
+  <si>
+    <t>Robot04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,6 +240,28 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -173,20 +296,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,10 +625,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="6" width="12.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="3" customWidth="1"/>
+    <col min="8" max="9" width="13.125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <f>255*D4+E4</f>
+        <v>256</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="6">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:B7" si="0">255*D5+E5</f>
+        <v>257</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <f t="shared" ref="B8" si="1">255*D8+E8</f>
+        <v>260</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -509,7 +885,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -522,17 +898,21 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -545,17 +925,21 @@
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -568,214 +952,164 @@
       <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <f>255*D4+E4</f>
+        <v>511</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="6">
+        <v>11001</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:B8" si="0">255*D5+E5</f>
+        <v>512</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>513</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="E6" s="6">
         <v>3</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="6">
-        <v>10004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>514</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
         <v>4</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>515</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3">
-        <v>10005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H6"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AED1D7-4AD9-495B-8C43-3B85C3365E1A}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -788,17 +1122,21 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -811,17 +1149,21 @@
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -834,38 +1176,313 @@
       <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
-        <v>200</v>
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <f>255*D4+E4</f>
+        <v>255001</v>
       </c>
       <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="9">
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:B7" si="0">255*D5+E5</f>
+        <v>255002</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="6">
         <v>2</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="9">
+        <v>19002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>255003</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="9">
+        <v>19003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>255004</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="9">
+        <v>19004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BF76C0-670A-4AE9-8C43-44F304E388DD}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <f>255*D4+E4</f>
+        <v>255256</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
       <c r="D4" s="6">
+        <v>1001</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:B7" si="0">255*D5+E5</f>
+        <v>255257</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1001</v>
+      </c>
+      <c r="E5" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="F5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>255258</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1001</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>255259</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ConfigInput/ET/StartSceneConfig.xlsx
+++ b/ConfigInput/ET/StartSceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\ConfigInput\ET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612993B9-E27A-4B48-8582-C768A3B524A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E61EB18-6B56-4008-BD75-CFFB767A326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="2925" windowWidth="25725" windowHeight="11265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="3405" windowWidth="25725" windowHeight="11265" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一区" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
   <si>
     <t>##comment</t>
   </si>
@@ -625,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -745,7 +745,7 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B7" si="0">255*D5+E5</f>
+        <f t="shared" ref="B5:B6" si="0">255*D5+E5</f>
         <v>257</v>
       </c>
       <c r="C5" s="6">
@@ -782,16 +782,16 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B7" si="1">255*D7+E7</f>
         <v>259</v>
       </c>
       <c r="C7" s="6">
@@ -807,31 +807,12 @@
         <v>20</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
-        <f t="shared" ref="B8" si="1">255*D8+E8</f>
-        <v>260</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="6"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
@@ -856,9 +837,6 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -869,10 +847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -993,7 +971,7 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B8" si="0">255*D5+E5</f>
+        <f t="shared" ref="B5:B7" si="0">255*D5+E5</f>
         <v>512</v>
       </c>
       <c r="C5" s="6">
@@ -1030,10 +1008,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="3"/>
@@ -1043,10 +1021,10 @@
         <f t="shared" si="0"/>
         <v>514</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>2</v>
       </c>
       <c r="E7" s="6">
@@ -1056,29 +1034,6 @@
         <v>20</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>515</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1091,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AED1D7-4AD9-495B-8C43-3B85C3365E1A}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1286,6 +1241,28 @@
         <v>19004</v>
       </c>
     </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <f t="shared" ref="B8" si="1">255*D8+E8</f>
+        <v>255005</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1296,7 +1273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BF76C0-670A-4AE9-8C43-44F304E388DD}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>

--- a/ConfigInput/ET/StartSceneConfig.xlsx
+++ b/ConfigInput/ET/StartSceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\ConfigInput\ET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E61EB18-6B56-4008-BD75-CFFB767A326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E537A8D6-D12E-4ACB-9B34-DF157C68CBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="3405" windowWidth="25725" windowHeight="11265" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="585" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一区" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="37">
   <si>
     <t>##comment</t>
   </si>
@@ -625,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -745,7 +745,7 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B6" si="0">255*D5+E5</f>
+        <f t="shared" ref="B5:B8" si="0">255*D5+E5</f>
         <v>257</v>
       </c>
       <c r="C5" s="6">
@@ -767,7 +767,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>258</v>
@@ -782,16 +782,16 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
-        <f t="shared" ref="B7" si="1">255*D7+E7</f>
+        <f t="shared" si="0"/>
         <v>259</v>
       </c>
       <c r="C7" s="6">
@@ -807,12 +807,31 @@
         <v>20</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
@@ -837,6 +856,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -847,10 +869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -971,7 +993,7 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B7" si="0">255*D5+E5</f>
+        <f t="shared" ref="B5:B8" si="0">255*D5+E5</f>
         <v>512</v>
       </c>
       <c r="C5" s="6">
@@ -993,7 +1015,7 @@
         <v>11002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>513</v>
@@ -1008,23 +1030,22 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>514</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
         <v>2</v>
       </c>
       <c r="E7" s="6">
@@ -1034,6 +1055,29 @@
         <v>20</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>515</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1046,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AED1D7-4AD9-495B-8C43-3B85C3365E1A}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1241,28 +1285,6 @@
         <v>19004</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
-        <f t="shared" ref="B8" si="1">255*D8+E8</f>
-        <v>255005</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="9"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1273,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BF76C0-670A-4AE9-8C43-44F304E388DD}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/ConfigInput/ET/StartSceneConfig.xlsx
+++ b/ConfigInput/ET/StartSceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\ConfigInput\ET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E537A8D6-D12E-4ACB-9B34-DF157C68CBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B828A647-3689-47B7-8EBD-696D39CD409F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="585" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5955" yWindow="2805" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一区" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="38">
   <si>
     <t>##comment</t>
   </si>
@@ -201,6 +201,10 @@
   </si>
   <si>
     <t>Robot04</t>
+  </si>
+  <si>
+    <t>UnitCache</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -625,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -745,7 +749,7 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B8" si="0">255*D5+E5</f>
+        <f t="shared" ref="B5:B9" si="0">255*D5+E5</f>
         <v>257</v>
       </c>
       <c r="C5" s="6">
@@ -789,7 +793,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>259</v>
@@ -804,10 +808,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -829,12 +833,31 @@
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
@@ -859,6 +882,9 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -869,10 +895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -993,7 +1019,7 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B8" si="0">255*D5+E5</f>
+        <f t="shared" ref="B5:B9" si="0">255*D5+E5</f>
         <v>512</v>
       </c>
       <c r="C5" s="6">
@@ -1037,9 +1063,9 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
-        <f t="shared" si="0"/>
+        <f>255*D7+E7</f>
         <v>514</v>
       </c>
       <c r="C7" s="6">
@@ -1052,23 +1078,22 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>515</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
         <v>2</v>
       </c>
       <c r="E8" s="6">
@@ -1078,6 +1103,29 @@
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>516</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
     </row>

--- a/ConfigInput/ET/StartSceneConfig.xlsx
+++ b/ConfigInput/ET/StartSceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\ConfigInput\ET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B828A647-3689-47B7-8EBD-696D39CD409F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175A89D8-5964-4599-B2FC-B258A8987DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="2805" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="2985" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一区" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="37">
   <si>
     <t>##comment</t>
   </si>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t>Map</t>
-  </si>
-  <si>
-    <t>Map1</t>
-  </si>
-  <si>
-    <t>Map2</t>
   </si>
   <si>
     <t>Account</t>
@@ -204,6 +198,10 @@
   </si>
   <si>
     <t>UnitCache</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -629,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -650,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -659,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -685,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -711,7 +709,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
@@ -749,7 +747,7 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B9" si="0">255*D5+E5</f>
+        <f t="shared" ref="B5:B8" si="0">255*D5+E5</f>
         <v>257</v>
       </c>
       <c r="C5" s="6">
@@ -808,10 +806,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -833,31 +831,12 @@
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>261</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="6"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
@@ -882,9 +861,6 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -895,10 +871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -925,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -952,7 +928,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -979,7 +955,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
@@ -1019,7 +995,7 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B9" si="0">255*D5+E5</f>
+        <f t="shared" ref="B5:B8" si="0">255*D5+E5</f>
         <v>512</v>
       </c>
       <c r="C5" s="6">
@@ -1078,10 +1054,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -1103,31 +1079,10 @@
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>516</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1170,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -1197,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1224,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
@@ -1252,10 +1207,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="9">
         <v>19001</v>
@@ -1276,10 +1231,10 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="H5" s="9">
         <v>19002</v>
@@ -1300,10 +1255,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="9">
         <v>19003</v>
@@ -1324,10 +1279,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H7" s="9">
         <v>19004</v>
@@ -1373,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -1400,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -1427,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
@@ -1455,10 +1410,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="9"/>
     </row>
@@ -1477,10 +1432,10 @@
         <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="H5" s="9"/>
     </row>
@@ -1499,10 +1454,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" s="9"/>
     </row>
@@ -1521,10 +1476,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="9"/>
     </row>
